--- a/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_C.xlsx
+++ b/biorefineries/TAL/analyses/results/TAL_2025/full/baseline_C.xlsx
@@ -2212,73 +2212,73 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.252516757301006</v>
+        <v>2.388616189255626</v>
       </c>
       <c r="C4" t="n">
-        <v>19.13964047877353</v>
+        <v>19.13684437685263</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9336071367104277</v>
+        <v>0.9337435616258615</v>
       </c>
       <c r="E4" t="n">
-        <v>2.4127030189998</v>
+        <v>2.558107265657072</v>
       </c>
       <c r="F4" t="n">
-        <v>17.86890494505476</v>
+        <v>17.86890522672221</v>
       </c>
       <c r="G4" t="n">
-        <v>0.732432137320099</v>
+        <v>0.7324153469921627</v>
       </c>
       <c r="H4" t="n">
-        <v>204.3971928414115</v>
+        <v>205.6664115777859</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3864680454855</v>
+        <v>112.0313834085117</v>
       </c>
       <c r="J4" t="n">
-        <v>23.92637337403787</v>
+        <v>25.82813384599407</v>
       </c>
       <c r="K4" t="n">
-        <v>11.82766823451205</v>
+        <v>11.32409998352393</v>
       </c>
       <c r="L4" t="n">
-        <v>18.62962911887336</v>
+        <v>21.06142976890885</v>
       </c>
       <c r="M4" t="n">
-        <v>43.11236090715407</v>
+        <v>45.71057628981572</v>
       </c>
       <c r="N4" t="n">
-        <v>6.283858917231978</v>
+        <v>6.311275572055117</v>
       </c>
       <c r="O4" t="n">
-        <v>4.658941179513931e-07</v>
+        <v>5.613546818494797e-07</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.850689340900237</v>
+        <v>3.852191713704811</v>
       </c>
       <c r="R4" t="n">
-        <v>39.36298650781034</v>
+        <v>39.84925216383638</v>
       </c>
       <c r="S4" t="n">
-        <v>8.132011667034499</v>
+        <v>8.160988225253254</v>
       </c>
       <c r="T4" t="n">
-        <v>7.210314719850385</v>
+        <v>7.494915784220118</v>
       </c>
       <c r="U4" t="n">
-        <v>3.914921511695379</v>
+        <v>3.913753664008042</v>
       </c>
       <c r="V4" t="n">
-        <v>48.56170955025692</v>
+        <v>48.38099271253824</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2766468525905196</v>
+        <v>0.2956572570736547</v>
       </c>
       <c r="X4" t="n">
-        <v>0.07718789534711483</v>
+        <v>0.08363188787721161</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -2296,25 +2296,25 @@
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>2708.081485876676</v>
+        <v>2710.06935865681</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1373.579377723822</v>
+        <v>1701.889823069519</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.1604768263614141</v>
+        <v>0.1603582334148445</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>69.37005048767135</v>
+        <v>69.23662284756489</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>41.14521118366362</v>
+        <v>41.13859562497282</v>
       </c>
       <c r="AN4" t="n">
-        <v>1090.947728686107</v>
+        <v>1095.707564592902</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-2053.41462404723</v>
+        <v>-1965.989580472905</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2371,37 +2371,37 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>10.07541211143677</v>
+        <v>10.60519760252698</v>
       </c>
       <c r="BD4" t="n">
-        <v>58.46900550112074</v>
+        <v>64.7828614122952</v>
       </c>
       <c r="BE4" t="n">
-        <v>124.2402125473954</v>
+        <v>118.9506300790329</v>
       </c>
       <c r="BF4" t="n">
         <v>0</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.6058640997859202</v>
+        <v>0.6062953742067877</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.6648215057831584</v>
+        <v>0.7638871746242617</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5386862277618697</v>
+        <v>0.5399787456859944</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.2889532280909854</v>
+        <v>0.3006840354530406</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.1555381298641394</v>
+        <v>0.1556514473369973</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.5173296218589999</v>
+        <v>0.5214998750578943</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.1250535572476091</v>
+        <v>0.1375082121784563</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2428,25 +2428,25 @@
         <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>23.11508349158215</v>
+        <v>23.41552204829366</v>
       </c>
       <c r="BW4" t="n">
-        <v>19.5759238611344</v>
+        <v>19.67051365583931</v>
       </c>
       <c r="BX4" t="n">
-        <v>1.903305409109831</v>
+        <v>1.898406500333071</v>
       </c>
       <c r="BY4" t="n">
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>20.47600016447644</v>
+        <v>19.76467995521195</v>
       </c>
       <c r="CA4" t="n">
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>-2.407408175958875</v>
+        <v>-2.401282088489689</v>
       </c>
       <c r="CC4" t="n">
         <v>0</v>
@@ -2467,16 +2467,16 @@
         <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>17.63586585109379</v>
+        <v>17.64881138272815</v>
       </c>
       <c r="CJ4" t="n">
-        <v>29.05924012274171</v>
+        <v>35.36859762741532</v>
       </c>
       <c r="CK4" t="n">
-        <v>14.34927579820514</v>
+        <v>14.31743331340353</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.09952170236772961</v>
+        <v>0.11611029818111</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>-2.674897973287636</v>
+        <v>-2.668091209432919</v>
       </c>
       <c r="CQ4" t="n">
         <v>0</v>
@@ -2506,64 +2506,64 @@
         <v>0</v>
       </c>
       <c r="CV4" t="n">
-        <v>111.3864680454854</v>
+        <v>112.0313834085117</v>
       </c>
       <c r="CW4" t="n">
-        <v>18.60404951080553</v>
+        <v>21.03674539710113</v>
       </c>
       <c r="CX4" t="n">
-        <v>30.43171774531757</v>
+        <v>32.36084538062507</v>
       </c>
       <c r="CY4" t="n">
-        <v>192.7846301599529</v>
+        <v>194.3386890938551</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2.896246370392682</v>
+        <v>3.025504864543432</v>
       </c>
       <c r="DA4" t="n">
-        <v>62.66290475034394</v>
+        <v>62.34784007118831</v>
       </c>
       <c r="DB4" t="n">
-        <v>65.07031292630282</v>
+        <v>64.749122159678</v>
       </c>
       <c r="DC4" t="n">
-        <v>58.46900550112073</v>
+        <v>64.78286141229519</v>
       </c>
       <c r="DD4" t="n">
-        <v>61.14390347440837</v>
+        <v>67.45095262172811</v>
       </c>
       <c r="DE4" t="n">
-        <v>-29.33449462924614</v>
+        <v>-28.08556543532722</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.2369964164179025</v>
+        <v>0.2369583107998434</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.03457053094930511</v>
+        <v>0.0343849339042629</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.3533911003600205</v>
+        <v>0.3556972247546912</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.07300717770953774</v>
+        <v>0.07284555431664171</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.0647324118124116</v>
+        <v>0.0669001449075267</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.03514719139937802</v>
+        <v>0.03493444019821583</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.4359749474274239</v>
+        <v>0.43185214036072</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.002483666619876564</v>
+        <v>0.002639057450496427</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.000692973722046691</v>
+        <v>0.0007465041074451069</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2581,25 +2581,25 @@
         <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.5125753823426464</v>
+        <v>0.4823730444078316</v>
       </c>
       <c r="DV4" t="n">
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.2599858897845679</v>
+        <v>0.3029242674466585</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.037444443910733e-05</v>
+        <v>2.854262345762191e-05</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01313009979104672</v>
+        <v>0.01232362575548608</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.007787809363944573</v>
+        <v>0.007322377027323089</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.2064904442733553</v>
+        <v>0.195028142739243</v>
       </c>
       <c r="EF4" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="EH4" t="n">
-        <v>-0.3886625241958919</v>
+        <v>-0.3499321433148915</v>
       </c>
       <c r="EI4" t="n">
         <v>0</v>
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.05226252789487019</v>
+        <v>0.0545706964062377</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.3032866544008677</v>
+        <v>0.3333503056666631</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.6444508177042623</v>
+        <v>0.6120789979270992</v>
       </c>
       <c r="EW4" t="n">
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.2091894204786781</v>
+        <v>0.2003947775170018</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2295459090011806</v>
+        <v>0.2524825471531797</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.1859946147084279</v>
+        <v>0.1784755833692836</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.09976817961512306</v>
+        <v>0.099383094364456</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.05370334908457772</v>
+        <v>0.05144643763793322</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.1786207234120275</v>
+        <v>0.1723678851650407</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.04317780369998493</v>
+        <v>0.04544967479310504</v>
       </c>
       <c r="FE4" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.3552324009531317</v>
+        <v>0.3616345869608636</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.3008426267029891</v>
+        <v>0.3037958353679268</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.02924998088245668</v>
+        <v>0.02931941680462331</v>
       </c>
       <c r="FP4" t="n">
         <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.3146749914614226</v>
+        <v>0.3052501608665862</v>
       </c>
       <c r="FR4" t="n">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0.03699702779492473</v>
+        <v>-0.03708594044824083</v>
       </c>
       <c r="FT4" t="n">
         <v>0</v>
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.2884321224024443</v>
+        <v>0.2616539974120826</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4752598128594191</v>
+        <v>0.5243602388503845</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.234680401198314</v>
+        <v>0.2122643603522869</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.001627663539822644</v>
+        <v>0.001721403385245995</v>
       </c>
       <c r="GD4" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.04374758269084355</v>
+        <v>-0.03955601968138017</v>
       </c>
       <c r="GH4" t="n">
         <v>0</v>
@@ -2791,22 +2791,22 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.5121448951187336</v>
+        <v>0.4820053778706712</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.0005092691643057647</v>
+        <v>0.0004792988826378391</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.06578810577092245</v>
+        <v>0.06128288634034298</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.1157852431109136</v>
+        <v>0.1078561817566618</v>
       </c>
       <c r="GQ4" t="n">
-        <v>0.07651272872770583</v>
+        <v>0.07127307897473979</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.001681462625271303</v>
+        <v>0.06228123036618491</v>
       </c>
       <c r="GS4" t="n">
         <v>0</v>
@@ -2815,43 +2815,43 @@
         <v>0</v>
       </c>
       <c r="GU4" t="n">
-        <v>1.445716394679892e-05</v>
+        <v>1.358633753995347e-05</v>
       </c>
       <c r="GV4" t="n">
-        <v>1.457551226090987e-05</v>
+        <v>1.36975571504326e-05</v>
       </c>
       <c r="GW4" t="n">
-        <v>1.316258207478303e-06</v>
+        <v>1.236973472967635e-06</v>
       </c>
       <c r="GX4" t="n">
         <v>0</v>
       </c>
       <c r="GY4" t="n">
-        <v>5.081919188898339e-05</v>
+        <v>1.733347963533497e-05</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.0001646141439116752</v>
+        <v>0.0001560609936757305</v>
       </c>
       <c r="HA4" t="n">
         <v>0</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.6628270295773525</v>
+        <v>0.6137225248531049</v>
       </c>
       <c r="HC4" t="n">
-        <v>0.0006591052076265891</v>
+        <v>0.0006102764282656883</v>
       </c>
       <c r="HD4" t="n">
-        <v>0.0851441362498629</v>
+        <v>0.07802960187131486</v>
       </c>
       <c r="HE4" t="n">
-        <v>0.149851320381327</v>
+        <v>0.1373299370250483</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.09902413397225314</v>
+        <v>0.09074980485833629</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.002176178827274123</v>
+        <v>0.079300762410889</v>
       </c>
       <c r="HH4" t="n">
         <v>0</v>
@@ -2860,175 +2860,175 @@
         <v>0</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1.871071863900534e-05</v>
+        <v>1.729906295934324e-05</v>
       </c>
       <c r="HK4" t="n">
-        <v>1.886388713144821e-05</v>
+        <v>1.744067544602952e-05</v>
       </c>
       <c r="HL4" t="n">
-        <v>1.703524776162005e-06</v>
+        <v>1.575000026679585e-06</v>
       </c>
       <c r="HM4" t="n">
         <v>0</v>
       </c>
       <c r="HN4" t="n">
-        <v>6.577110174550719e-05</v>
+        <v>2.207018297862636e-05</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.0002130465520116113</v>
+        <v>0.0001987076316303101</v>
       </c>
       <c r="HP4" t="n">
         <v>0</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2.672727917642585</v>
+        <v>3.337578999405002</v>
       </c>
       <c r="HR4" t="n">
-        <v>6.918429801626111</v>
+        <v>7.402518167745125</v>
       </c>
       <c r="HS4" t="n">
-        <v>-4.245701883983526</v>
+        <v>-4.064939168340123</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.8523070564882751</v>
+        <v>1.066277694264496</v>
       </c>
       <c r="HU4" t="n">
-        <v>3.076304472637836</v>
+        <v>3.078562591730779</v>
       </c>
       <c r="HV4" t="n">
-        <v>2.989818272499999</v>
+        <v>3.257677881749851</v>
       </c>
       <c r="HW4" t="n">
-        <v>2.326761682186609</v>
+        <v>2.304641447979687</v>
       </c>
       <c r="HX4" t="n">
-        <v>0.3101810351161199</v>
+        <v>0.307232182555996</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.3163340395334713</v>
+        <v>0.3133266911248771</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.02433589586369434</v>
+        <v>0.02433198261780779</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.01220561980010448</v>
+        <v>0.3081455774714831</v>
       </c>
       <c r="IB4" t="n">
         <v>0</v>
       </c>
       <c r="IC4" t="n">
-        <v>0.003686167243194191</v>
+        <v>0.003688873023686901</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.0006434392240363091</v>
+        <v>0.0006439115317710862</v>
       </c>
       <c r="IE4" t="n">
-        <v>-10.38311303213833</v>
+        <v>-4.299450393438669</v>
       </c>
       <c r="IF4" t="n">
-        <v>43.74249405900132</v>
+        <v>47.52173401542295</v>
       </c>
       <c r="IG4" t="n">
-        <v>-54.12560709113966</v>
+        <v>-51.82118440886162</v>
       </c>
       <c r="IH4" t="n">
-        <v>9.447528902726726</v>
+        <v>9.454463731702898</v>
       </c>
       <c r="II4" t="n">
-        <v>34.2949651562746</v>
+        <v>38.06727028372005</v>
       </c>
       <c r="IJ4" t="n">
-        <v>18.01363882983181</v>
+        <v>17.84238540371371</v>
       </c>
       <c r="IK4" t="n">
-        <v>4.177979602261153</v>
+        <v>4.138260069306273</v>
       </c>
       <c r="IL4" t="n">
-        <v>8.907465043314705</v>
+        <v>8.822782879921451</v>
       </c>
       <c r="IM4" t="n">
-        <v>3.041986982961792</v>
+        <v>3.041497827225974</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1538946979051383</v>
+        <v>4.222344103552643</v>
       </c>
       <c r="IO4" t="n">
         <v>0</v>
       </c>
       <c r="IP4" t="n">
-        <v>0.04483147070741693</v>
+        <v>0.04486437863342696</v>
       </c>
       <c r="IQ4" t="n">
-        <v>0.002442076310761062</v>
+        <v>0.002443868883373053</v>
       </c>
       <c r="IR4" t="n">
-        <v>-0.6136799831351348</v>
+        <v>-0.5491292390273648</v>
       </c>
       <c r="IS4" t="n">
-        <v>0.1231937131584321</v>
+        <v>0.1440425636387588</v>
       </c>
       <c r="IT4" t="n">
-        <v>0.444653564586979</v>
+        <v>0.4158804506748732</v>
       </c>
       <c r="IU4" t="n">
-        <v>0.4321527222545889</v>
+        <v>0.440076985686368</v>
       </c>
       <c r="IV4" t="n">
-        <v>0.3363135493027227</v>
+        <v>0.311332089399208</v>
       </c>
       <c r="IW4" t="n">
-        <v>0.04483402217121793</v>
+        <v>0.0415037390782361</v>
       </c>
       <c r="IX4" t="n">
-        <v>0.04572338646250627</v>
+        <v>0.04232704115339163</v>
       </c>
       <c r="IY4" t="n">
-        <v>0.003517546114000379</v>
+        <v>0.003286987220622998</v>
       </c>
       <c r="IZ4" t="n">
-        <v>0.001764218204141591</v>
+        <v>0.04162712883490931</v>
       </c>
       <c r="JA4" t="n">
         <v>0</v>
       </c>
       <c r="JB4" t="n">
-        <v>0.0005328040247409596</v>
+        <v>0.0004983267774688307</v>
       </c>
       <c r="JC4" t="n">
-        <v>9.300365003126502e-05</v>
+        <v>8.698547131931289e-05</v>
       </c>
       <c r="JD4" t="n">
-        <v>-1.23736902194313</v>
+        <v>-1.09047334830087</v>
       </c>
       <c r="JE4" t="n">
-        <v>0.2159805723465056</v>
+        <v>0.1989503103702928</v>
       </c>
       <c r="JF4" t="n">
-        <v>0.7840194276534944</v>
+        <v>0.8010496896297071</v>
       </c>
       <c r="JG4" t="n">
-        <v>0.411810968197982</v>
+        <v>0.3754573727870082</v>
       </c>
       <c r="JH4" t="n">
-        <v>0.09551306326122501</v>
+        <v>0.08708141979758612</v>
       </c>
       <c r="JI4" t="n">
-        <v>0.2036341373516568</v>
+        <v>0.185657848197586</v>
       </c>
       <c r="JJ4" t="n">
-        <v>0.06954306215047223</v>
+        <v>0.06400224844991706</v>
       </c>
       <c r="JK4" t="n">
-        <v>0.003518196692158432</v>
+        <v>0.08885080039760969</v>
       </c>
       <c r="JL4" t="n">
         <v>0</v>
       </c>
       <c r="JM4" t="n">
-        <v>0.001024895165944282</v>
+        <v>0.0009440812622465847</v>
       </c>
       <c r="JN4" t="n">
-        <v>5.582846527834258e-05</v>
+        <v>5.142634068403116e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3038,73 +3038,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.252515340016886</v>
+        <v>2.388614115455021</v>
       </c>
       <c r="C5" t="n">
-        <v>19.13964043734909</v>
+        <v>19.13684433554702</v>
       </c>
       <c r="D5" t="n">
-        <v>0.933607136655991</v>
+        <v>0.9337435615723662</v>
       </c>
       <c r="E5" t="n">
-        <v>2.41270150106712</v>
+        <v>2.558105044850585</v>
       </c>
       <c r="F5" t="n">
-        <v>17.86890490533871</v>
+        <v>17.86890518712963</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7324321382342358</v>
+        <v>0.7324153479187616</v>
       </c>
       <c r="H5" t="n">
-        <v>204.3970741481118</v>
+        <v>205.6662481059983</v>
       </c>
       <c r="I5" t="n">
-        <v>111.3864073535426</v>
+        <v>112.0312996625143</v>
       </c>
       <c r="J5" t="n">
-        <v>23.92637280945608</v>
+        <v>25.82813328405908</v>
       </c>
       <c r="K5" t="n">
-        <v>11.82767822164546</v>
+        <v>11.32411626137105</v>
       </c>
       <c r="L5" t="n">
-        <v>18.62961606251188</v>
+        <v>21.06140950571266</v>
       </c>
       <c r="M5" t="n">
-        <v>43.11233368753633</v>
+        <v>45.71053650515311</v>
       </c>
       <c r="N5" t="n">
-        <v>6.283856418715194</v>
+        <v>6.311272157905256</v>
       </c>
       <c r="O5" t="n">
-        <v>-8.754432201385498e-08</v>
+        <v>4.600733518600464e-07</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.850689183828285</v>
+        <v>3.852191556563174</v>
       </c>
       <c r="R5" t="n">
-        <v>39.3629306131</v>
+        <v>39.84917585720861</v>
       </c>
       <c r="S5" t="n">
-        <v>8.132011360560343</v>
+        <v>8.160987919797545</v>
       </c>
       <c r="T5" t="n">
-        <v>7.210314200334206</v>
+        <v>7.494915105054485</v>
       </c>
       <c r="U5" t="n">
-        <v>3.914921495498813</v>
+        <v>3.913753647782088</v>
       </c>
       <c r="V5" t="n">
-        <v>48.56170983225978</v>
+        <v>48.3809929981756</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2766427784429796</v>
+        <v>0.2956506958752271</v>
       </c>
       <c r="X5" t="n">
-        <v>0.07718788951811223</v>
+        <v>0.08363188205750997</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -3122,25 +3122,25 @@
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>2708.081491068303</v>
+        <v>2710.069363836802</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>1373.579274406855</v>
+        <v>1701.889720224487</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.160476801914135</v>
+        <v>0.1603582089489968</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>69.37005061462447</v>
+        <v>69.23662297376147</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -3149,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>41.14521109461701</v>
+        <v>41.13859553618025</v>
       </c>
       <c r="AN5" t="n">
-        <v>1090.947294915832</v>
+        <v>1095.706971858551</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-2053.416357924558</v>
+        <v>-1965.99240648803</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -3197,37 +3197,37 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>10.07531112398148</v>
+        <v>10.60503052930846</v>
       </c>
       <c r="BD5" t="n">
-        <v>58.46900163326233</v>
+        <v>64.78285755331022</v>
       </c>
       <c r="BE5" t="n">
-        <v>124.240317454259</v>
+        <v>118.950801064822</v>
       </c>
       <c r="BF5" t="n">
         <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.6058640747244144</v>
+        <v>0.6062953491281338</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.6648003770419521</v>
+        <v>0.7638521803609631</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5386862054909503</v>
+        <v>0.5399787233976455</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2889531905321753</v>
+        <v>0.3006839883127473</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1555381301564002</v>
+        <v>0.1556514476285852</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.5173296219973319</v>
+        <v>0.5214998752016888</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.1250509263275129</v>
+        <v>0.1375038528141997</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
@@ -3254,25 +3254,25 @@
         <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>23.11501749617486</v>
+        <v>23.41541611686919</v>
       </c>
       <c r="BW5" t="n">
-        <v>19.57592277282185</v>
+        <v>19.67051256803267</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.903305118102312</v>
+        <v>1.898406208751917</v>
       </c>
       <c r="BY5" t="n">
         <v>0</v>
       </c>
       <c r="BZ5" t="n">
-        <v>20.47600075247556</v>
+        <v>19.76468054218887</v>
       </c>
       <c r="CA5" t="n">
         <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>-2.40740758046475</v>
+        <v>-2.401281492586769</v>
       </c>
       <c r="CC5" t="n">
         <v>0</v>
@@ -3293,16 +3293,16 @@
         <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>17.635864387382</v>
+        <v>17.64880991805024</v>
       </c>
       <c r="CJ5" t="n">
-        <v>29.05923639489899</v>
+        <v>35.36859390919388</v>
       </c>
       <c r="CK5" t="n">
-        <v>14.34927516439531</v>
+        <v>14.31743267655611</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.09952299821350309</v>
+        <v>0.1161115968285667</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-2.674897311627466</v>
+        <v>-2.668090547318583</v>
       </c>
       <c r="CQ5" t="n">
         <v>0</v>
@@ -3332,64 +3332,64 @@
         <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>111.3864073535425</v>
+        <v>112.0312996625142</v>
       </c>
       <c r="CW5" t="n">
-        <v>18.6040364600309</v>
+        <v>21.03672514262804</v>
       </c>
       <c r="CX5" t="n">
-        <v>30.43171468167636</v>
+        <v>32.36084140399909</v>
       </c>
       <c r="CY5" t="n">
-        <v>192.7846302115028</v>
+        <v>194.3386891474406</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2.896222526270737</v>
+        <v>3.025465416843963</v>
       </c>
       <c r="DA5" t="n">
-        <v>62.66283855910983</v>
+        <v>62.34773394325587</v>
       </c>
       <c r="DB5" t="n">
-        <v>65.07024613957458</v>
+        <v>64.74901543584264</v>
       </c>
       <c r="DC5" t="n">
-        <v>58.46900163326234</v>
+        <v>64.78285755331021</v>
       </c>
       <c r="DD5" t="n">
-        <v>61.14389894488981</v>
+        <v>67.45094810062879</v>
       </c>
       <c r="DE5" t="n">
-        <v>-29.33451939892226</v>
+        <v>-28.08560580697185</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.236996415904994</v>
+        <v>0.2369583102883982</v>
       </c>
       <c r="DG5" t="n">
         <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.03457054837585457</v>
+        <v>0.03438495820514096</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.3533907911057885</v>
+        <v>0.3556968095277946</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.07300721473805316</v>
+        <v>0.07284560604386364</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.06473244241955425</v>
+        <v>0.06690018885465354</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.03514721040488163</v>
+        <v>0.03493446616768683</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.4359751875120993</v>
+        <v>0.4318524657298421</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002483631396467526</v>
+        <v>0.002639000857491186</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0006929740473010898</v>
+        <v>0.000746504613527154</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
@@ -3407,25 +3407,25 @@
         <v>0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.5125754349276176</v>
+        <v>0.4823731046057081</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.25998589640259</v>
+        <v>0.3029242863654844</v>
       </c>
       <c r="DX5" t="n">
         <v>0</v>
       </c>
       <c r="DY5" t="n">
-        <v>3.037444286969436e-05</v>
+        <v>2.854262261030323e-05</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0131301011369178</v>
+        <v>0.01232362729232321</v>
       </c>
       <c r="EB5" t="n">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.007787810131109536</v>
+        <v>0.00732237791132079</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.2064903829588955</v>
+        <v>0.1950280612025533</v>
       </c>
       <c r="EF5" t="n">
         <v>0</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="EH5" t="n">
-        <v>-0.3886628915053273</v>
+        <v>-0.3499326893265402</v>
       </c>
       <c r="EI5" t="n">
         <v>0</v>
@@ -3482,37 +3482,37 @@
         <v>0</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.05226200404528058</v>
+        <v>0.05456983668991739</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.3032866342566643</v>
+        <v>0.3333502857177392</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.6444513616980551</v>
+        <v>0.6120798775923436</v>
       </c>
       <c r="EW5" t="n">
         <v>0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.2091911340474736</v>
+        <v>0.2003973820862891</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.2295405035392667</v>
+        <v>0.2524742725890357</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.1859961382817427</v>
+        <v>0.1784779030662093</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.09976898802187004</v>
+        <v>0.09938437459530045</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.05370379131629632</v>
+        <v>0.05144710852155571</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.1786221940147192</v>
+        <v>0.1723701326408468</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.04317725077863137</v>
+        <v>0.04544882650076294</v>
       </c>
       <c r="FE5" t="n">
         <v>0</v>
@@ -3539,25 +3539,25 @@
         <v>0</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.3552317513382927</v>
+        <v>0.3616335470007361</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.3008429187563211</v>
+        <v>0.3037963193050162</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.02925000643181455</v>
+        <v>0.02931946062767512</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.3146753234735717</v>
+        <v>0.3052506730665727</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>-0.03699705661633585</v>
+        <v>-0.03708599237259613</v>
       </c>
       <c r="FT5" t="n">
         <v>0</v>
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.288432119830591</v>
+        <v>0.2616539932355037</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.4752597870981478</v>
+        <v>0.5243602188723596</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.2346804082174836</v>
+        <v>0.2122643651382958</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001627684853777564</v>
+        <v>0.001721422753840939</v>
       </c>
       <c r="GD5" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.04374757511028866</v>
+        <v>-0.03955601251650472</v>
       </c>
       <c r="GH5" t="n">
         <v>0</v>
@@ -3617,22 +3617,22 @@
         <v>0</v>
       </c>
       <c r="GM5" t="n">
-        <v>0.5121449477101835</v>
+        <v>0.4820054381073476</v>
       </c>
       <c r="GN5" t="n">
-        <v>0.0005092692166019121</v>
+        <v>0.0004792989425362838</v>
       </c>
       <c r="GO5" t="n">
-        <v>0.06578810742202616</v>
+        <v>0.06128288919420406</v>
       </c>
       <c r="GP5" t="n">
-        <v>0.1157852460168104</v>
+        <v>0.1078561867793782</v>
       </c>
       <c r="GQ5" t="n">
-        <v>0.0765127306479686</v>
+        <v>0.07127308229383064</v>
       </c>
       <c r="GR5" t="n">
-        <v>0.001681462786158464</v>
+        <v>0.06228123812810238</v>
       </c>
       <c r="GS5" t="n">
         <v>0</v>
@@ -3641,43 +3641,43 @@
         <v>0</v>
       </c>
       <c r="GU5" t="n">
-        <v>1.445716320124327e-05</v>
+        <v>1.358633713901531e-05</v>
       </c>
       <c r="GV5" t="n">
-        <v>1.457551150925101e-05</v>
+        <v>1.36975567462123e-05</v>
       </c>
       <c r="GW5" t="n">
-        <v>1.316258139598895e-06</v>
+        <v>1.23697343646406e-06</v>
       </c>
       <c r="GX5" t="n">
         <v>0</v>
       </c>
       <c r="GY5" t="n">
-        <v>5.081919633970924e-05</v>
+        <v>1.733348107281667e-05</v>
       </c>
       <c r="GZ5" t="n">
-        <v>0.0001646141605441112</v>
+        <v>0.0001560610129235613</v>
       </c>
       <c r="HA5" t="n">
         <v>0</v>
       </c>
       <c r="HB5" t="n">
-        <v>0.6628270467708653</v>
+        <v>0.6137225396032051</v>
       </c>
       <c r="HC5" t="n">
-        <v>0.0006591052247235622</v>
+        <v>0.0006102764429329675</v>
       </c>
       <c r="HD5" t="n">
-        <v>0.08514413185202839</v>
+        <v>0.07802959762896376</v>
       </c>
       <c r="HE5" t="n">
-        <v>0.1498513126412602</v>
+        <v>0.1373299295586279</v>
       </c>
       <c r="HF5" t="n">
-        <v>0.09902412885749394</v>
+        <v>0.09074979992440707</v>
       </c>
       <c r="HG5" t="n">
-        <v>0.002176178868477715</v>
+        <v>0.07930076428950623</v>
       </c>
       <c r="HH5" t="n">
         <v>0</v>
@@ -3686,175 +3686,175 @@
         <v>0</v>
       </c>
       <c r="HJ5" t="n">
-        <v>1.871071623806623e-05</v>
+        <v>1.729906070272345e-05</v>
       </c>
       <c r="HK5" t="n">
-        <v>1.886388471085469e-05</v>
+        <v>1.744067317093674e-05</v>
       </c>
       <c r="HL5" t="n">
-        <v>1.703524557567555e-06</v>
+        <v>1.574999821224744e-06</v>
       </c>
       <c r="HM5" t="n">
         <v>0</v>
       </c>
       <c r="HN5" t="n">
-        <v>6.5771102457853e-05</v>
+        <v>2.20701825812263e-05</v>
       </c>
       <c r="HO5" t="n">
-        <v>0.0002130465571865072</v>
+        <v>0.0001987076360809976</v>
       </c>
       <c r="HP5" t="n">
         <v>0</v>
       </c>
       <c r="HQ5" t="n">
-        <v>2.672724100186735</v>
+        <v>3.337572925760107</v>
       </c>
       <c r="HR5" t="n">
-        <v>6.918429578623868</v>
+        <v>7.402517946260871</v>
       </c>
       <c r="HS5" t="n">
-        <v>-4.245705478437133</v>
+        <v>-4.064945020500764</v>
       </c>
       <c r="HT5" t="n">
-        <v>0.852307037678405</v>
+        <v>1.066277676178347</v>
       </c>
       <c r="HU5" t="n">
-        <v>3.076304485372881</v>
+        <v>3.078562604436351</v>
       </c>
       <c r="HV5" t="n">
-        <v>2.989818055572581</v>
+        <v>3.257677665646173</v>
       </c>
       <c r="HW5" t="n">
-        <v>2.326761511282271</v>
+        <v>2.304641276801994</v>
       </c>
       <c r="HX5" t="n">
-        <v>0.3101810123328306</v>
+        <v>0.3072321597362657</v>
       </c>
       <c r="HY5" t="n">
-        <v>0.3163340162982341</v>
+        <v>0.3133266678524758</v>
       </c>
       <c r="HZ5" t="n">
-        <v>0.02433589586511632</v>
+        <v>0.02433198261920318</v>
       </c>
       <c r="IA5" t="n">
-        <v>0.01220561979412909</v>
+        <v>0.3081455786362338</v>
       </c>
       <c r="IB5" t="n">
         <v>0</v>
       </c>
       <c r="IC5" t="n">
-        <v>0.003686167258453916</v>
+        <v>0.003688873038911305</v>
       </c>
       <c r="ID5" t="n">
-        <v>0.0006434392266999717</v>
+        <v>0.0006439115344285831</v>
       </c>
       <c r="IE5" t="n">
-        <v>-10.38316110052178</v>
+        <v>-4.299527231467835</v>
       </c>
       <c r="IF5" t="n">
-        <v>43.74249181389726</v>
+        <v>47.52173178266663</v>
       </c>
       <c r="IG5" t="n">
-        <v>-54.12565291441904</v>
+        <v>-51.82125901413446</v>
       </c>
       <c r="IH5" t="n">
-        <v>9.447528941836868</v>
+        <v>9.454463770722528</v>
       </c>
       <c r="II5" t="n">
-        <v>34.2949628720604</v>
+        <v>38.0672680119441</v>
       </c>
       <c r="IJ5" t="n">
-        <v>18.01363750670145</v>
+        <v>17.84238407846705</v>
       </c>
       <c r="IK5" t="n">
-        <v>4.17797929538192</v>
+        <v>4.1382597619362</v>
       </c>
       <c r="IL5" t="n">
-        <v>8.907464389047261</v>
+        <v>8.822782224607529</v>
       </c>
       <c r="IM5" t="n">
-        <v>3.041986983139539</v>
+        <v>3.041497827400398</v>
       </c>
       <c r="IN5" t="n">
-        <v>0.1538946977902214</v>
+        <v>4.222344119532925</v>
       </c>
       <c r="IO5" t="n">
         <v>0</v>
       </c>
       <c r="IP5" t="n">
-        <v>0.04483147089300696</v>
+        <v>0.04486437881858742</v>
       </c>
       <c r="IQ5" t="n">
-        <v>0.00244207632087059</v>
+        <v>0.002443868893459181</v>
       </c>
       <c r="IR5" t="n">
-        <v>-0.6136805224635441</v>
+        <v>-0.5491300460208991</v>
       </c>
       <c r="IS5" t="n">
-        <v>0.1231937144105376</v>
+        <v>0.1440425655052875</v>
       </c>
       <c r="IT5" t="n">
-        <v>0.4446535807602718</v>
+        <v>0.415880464834453</v>
       </c>
       <c r="IU5" t="n">
-        <v>0.4321527048291905</v>
+        <v>0.4400769696602596</v>
       </c>
       <c r="IV5" t="n">
-        <v>0.3363135354403771</v>
+        <v>0.3113320755900504</v>
       </c>
       <c r="IW5" t="n">
-        <v>0.04483402032322604</v>
+        <v>0.0415037372373347</v>
       </c>
       <c r="IX5" t="n">
-        <v>0.04572338457785611</v>
+        <v>0.04232703927597259</v>
       </c>
       <c r="IY5" t="n">
-        <v>0.003517546227587233</v>
+        <v>0.003286987319158564</v>
       </c>
       <c r="IZ5" t="n">
-        <v>0.001764218260144072</v>
+        <v>0.04162713023774336</v>
       </c>
       <c r="JA5" t="n">
         <v>0</v>
       </c>
       <c r="JB5" t="n">
-        <v>0.0005328040441205335</v>
+        <v>0.0004983267944354817</v>
       </c>
       <c r="JC5" t="n">
-        <v>9.300365341406815e-05</v>
+        <v>8.698547428092803e-05</v>
       </c>
       <c r="JD5" t="n">
-        <v>-1.237370133020702</v>
+        <v>-1.090474969454629</v>
       </c>
       <c r="JE5" t="n">
-        <v>0.2159805843259101</v>
+        <v>0.1989503205388447</v>
       </c>
       <c r="JF5" t="n">
-        <v>0.7840194156740901</v>
+        <v>0.8010496794611554</v>
       </c>
       <c r="JG5" t="n">
-        <v>0.4118109590862039</v>
+        <v>0.3754573625402892</v>
       </c>
       <c r="JH5" t="n">
-        <v>0.09551306114789168</v>
+        <v>0.08708141742102114</v>
       </c>
       <c r="JI5" t="n">
-        <v>0.2036341328460237</v>
+        <v>0.1856578431307423</v>
       </c>
       <c r="JJ5" t="n">
-        <v>0.06954306572386626</v>
+        <v>0.06400225146066273</v>
       </c>
       <c r="JK5" t="n">
-        <v>0.003518196870104416</v>
+        <v>0.08885080490843998</v>
       </c>
       <c r="JL5" t="n">
         <v>0</v>
       </c>
       <c r="JM5" t="n">
-        <v>0.001024895222790297</v>
+        <v>0.0009440813104995371</v>
       </c>
       <c r="JN5" t="n">
-        <v>5.582846837487954e-05</v>
+        <v>5.142634331248368e-05</v>
       </c>
     </row>
   </sheetData>
